--- a/Assets/ExcelDataTables/PassiveSkills.xlsx
+++ b/Assets/ExcelDataTables/PassiveSkills.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSH\Desktop\Unity Project\UnityKoreaAward\Assets\ExcelDataTables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\UnityKoreaAward\Assets\ExcelDataTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9074A0E0-CB55-418A-BAF4-8F7FF4647302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8669A9A-41DE-4086-8395-8026791B5089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A03926BC-5744-4D89-8F78-407C6C0BFAE5}"/>
+    <workbookView xWindow="1590" yWindow="1470" windowWidth="26505" windowHeight="13515" xr2:uid="{A03926BC-5744-4D89-8F78-407C6C0BFAE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -514,7 +514,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -603,7 +603,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
